--- a/2020秋招.xlsx
+++ b/2020秋招.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>2020年秋招</t>
   </si>
@@ -28,7 +28,7 @@
     <t>岗位</t>
   </si>
   <si>
-    <t>部门</t>
+    <t>是否秋招</t>
   </si>
   <si>
     <t>投递时间</t>
@@ -37,6 +37,9 @@
     <t>是否内推</t>
   </si>
   <si>
+    <t>链接地址</t>
+  </si>
+  <si>
     <t>进度</t>
   </si>
   <si>
@@ -46,9 +49,15 @@
     <t>C++系统工程师</t>
   </si>
   <si>
+    <t>提前批</t>
+  </si>
+  <si>
     <t>是</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
     <t>简历未过</t>
   </si>
   <si>
@@ -58,7 +67,73 @@
     <t>pc软件开发工程师</t>
   </si>
   <si>
-    <t>初筛</t>
+    <t>秋招</t>
+  </si>
+  <si>
+    <t>https://account.dji.com/login?appId=dji_hiren&amp;locale=zh_CN&amp;backUrl=https%3A%2F%2Fwe.dji.com%2Fzh-CN%2Fuser</t>
+  </si>
+  <si>
+    <t>8.6号笔试</t>
+  </si>
+  <si>
+    <t>快手</t>
+  </si>
+  <si>
+    <t>C++游戏服务器开发</t>
+  </si>
+  <si>
+    <t>https://campus.kuaishou.cn/recruit/campus/e/#/campus/index/</t>
+  </si>
+  <si>
+    <t>shopee</t>
+  </si>
+  <si>
+    <t>服务端开发（新加坡）</t>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/m/candidate/applications/deliver-query/shopee</t>
+  </si>
+  <si>
+    <t>贝壳</t>
+  </si>
+  <si>
+    <t>C++研发工程师</t>
+  </si>
+  <si>
+    <t>作业帮</t>
+  </si>
+  <si>
+    <t>C++后端研发工程师</t>
+  </si>
+  <si>
+    <t>http://job.zuoyebang.com/xiangqing1?jobId=510344870</t>
+  </si>
+  <si>
+    <t>有赞</t>
+  </si>
+  <si>
+    <t>测试开发工程师</t>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/youzan/3749#/jobs?_k=dpf8ek</t>
+  </si>
+  <si>
+    <t>微策略</t>
+  </si>
+  <si>
+    <t>C++软件开发工程师</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> www.microstrategy.com</t>
+  </si>
+  <si>
+    <t>奥比中光</t>
+  </si>
+  <si>
+    <t>C++后台开发工程师</t>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/orbbec/2679#/candidateHome/applications?_k=cwh7y1</t>
   </si>
 </sst>
 </file>
@@ -67,11 +142,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,12 +177,27 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -115,6 +205,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -130,62 +266,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,52 +289,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,31 +347,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,151 +527,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,7 +566,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,6 +593,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,54 +636,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -571,6 +650,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -579,10 +667,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,137 +679,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -752,8 +840,29 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1074,25 +1183,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="8.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="68.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="9" customHeight="1" spans="1:8">
+    <row r="1" ht="9" customHeight="1" spans="1:9">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1101,8 +1211,9 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-    </row>
-    <row r="2" ht="36" customHeight="1" spans="1:8">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" ht="36" customHeight="1" spans="1:9">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -1113,8 +1224,9 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-    </row>
-    <row r="3" ht="33" customHeight="1" spans="1:8">
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" ht="33" customHeight="1" spans="1:9">
       <c r="A3" s="4"/>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -1137,201 +1249,308 @@
       <c r="H3" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" ht="24" customHeight="1" spans="1:8">
+      <c r="I3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="24" customHeight="1" spans="1:9">
       <c r="A4" s="4"/>
       <c r="B4" s="7">
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="F4" s="9">
         <v>43668</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" ht="24" customHeight="1" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="24" customHeight="1" spans="1:9">
       <c r="A5" s="4"/>
       <c r="B5" s="7">
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" s="9">
         <v>43675</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" ht="24" customHeight="1" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="1:9">
       <c r="A6" s="4"/>
       <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="1:8">
+      <c r="C6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="9">
+        <v>43682</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="1:9">
       <c r="A7" s="4"/>
       <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="1:8">
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="9">
+        <v>43682</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="1:9">
       <c r="A8" s="4"/>
       <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="1:8">
+      <c r="C8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9">
+        <v>43682</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="1:9">
       <c r="A9" s="4"/>
       <c r="B9" s="7">
         <v>6</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="1:8">
+      <c r="C9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="9">
+        <v>43682</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="1:9">
       <c r="A10" s="4"/>
       <c r="B10" s="7">
         <v>7</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="1:8">
+      <c r="C10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="9">
+        <v>43682</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="1:9">
       <c r="A11" s="4"/>
       <c r="B11" s="7">
         <v>8</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="1:8">
+      <c r="C11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="9">
+        <v>43683</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="1:9">
       <c r="A12" s="4"/>
       <c r="B12" s="7">
         <v>9</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="1:8">
+      <c r="C12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="9">
+        <v>43683</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="1:9">
       <c r="A13" s="4"/>
       <c r="B13" s="7">
         <v>10</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="9"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="1:8">
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14" s="7">
         <v>11</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="9"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="1:8">
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="1:9">
       <c r="A15" s="4"/>
       <c r="B15" s="7">
         <v>12</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="9"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="1:8">
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="1:9">
       <c r="A16" s="4"/>
       <c r="B16" s="7">
         <v>13</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="10"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="9"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="1:8">
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="1:9">
       <c r="A17" s="4"/>
       <c r="B17" s="7">
         <v>14</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="9"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5 H7 H9:H13">
+  <conditionalFormatting sqref="I5 I9:I13 I7">
     <cfRule type="iconSet" priority="7">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -1340,6 +1559,13 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="H5" r:id="rId1" display="https://account.dji.com/login?appId=dji_hiren&amp;locale=zh_CN&amp;backUrl=https%3A%2F%2Fwe.dji.com%2Fzh-CN%2Fuser"/>
+    <hyperlink ref="H6" r:id="rId2" display="https://campus.kuaishou.cn/recruit/campus/e/#/campus/index/"/>
+    <hyperlink ref="H7" r:id="rId3" display="https://app.mokahr.com/m/candidate/applications/deliver-query/shopee"/>
+    <hyperlink ref="H10" r:id="rId4" display="https://app.mokahr.com/campus_apply/youzan/3749#/jobs?_k=dpf8ek"/>
+    <hyperlink ref="H12" r:id="rId5" display="https://app.mokahr.com/campus_apply/orbbec/2679#/candidateHome/applications?_k=cwh7y1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/2020秋招.xlsx
+++ b/2020秋招.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="19890" windowHeight="7575"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>2020年秋招</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>C++研发工程师</t>
+  </si>
+  <si>
+    <t>笔试未通过</t>
   </si>
   <si>
     <t>作业帮</t>
@@ -141,16 +144,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -175,22 +178,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -198,62 +185,55 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -261,22 +241,75 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -284,44 +317,14 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -353,187 +356,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,11 +565,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,15 +615,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -617,21 +626,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,6 +648,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -664,148 +667,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -837,25 +840,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="48" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -864,57 +864,60 @@
     <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -933,7 +936,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1185,20 +1188,20 @@
   <sheetPr/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A11" sqref="$A11:$XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.87333333333333" customWidth="1"/>
+    <col min="2" max="2" width="6.75333333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="68.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6266666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.2533333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1266666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7533333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="68.8733333333333" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1267,16 +1270,16 @@
       <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>43668</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1294,16 +1297,16 @@
       <c r="E5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="10">
         <v>43675</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1321,16 +1324,16 @@
       <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="10">
         <v>43682</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:9">
       <c r="A7" s="4"/>
@@ -1346,13 +1349,13 @@
       <c r="E7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="10">
         <v>43682</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="14" t="s">
         <v>25</v>
       </c>
       <c r="I7" s="8"/>
@@ -1371,14 +1374,16 @@
       <c r="E8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="10">
         <v>43682</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="I8" s="16" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:9">
       <c r="A9" s="4"/>
@@ -1386,22 +1391,22 @@
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="10">
         <v>43682</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I9" s="8"/>
     </row>
@@ -1411,22 +1416,22 @@
         <v>7</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="10">
         <v>43682</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>33</v>
+      <c r="H10" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="I10" s="8"/>
     </row>
@@ -1436,22 +1441,22 @@
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="14" t="s">
         <v>35</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="10">
         <v>43683</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I11" s="8"/>
     </row>
@@ -1461,22 +1466,22 @@
         <v>9</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="10">
         <v>43683</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>39</v>
+      <c r="H12" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="I12" s="8"/>
     </row>
@@ -1487,8 +1492,8 @@
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="9"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -1500,8 +1505,8 @@
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="9"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -1513,8 +1518,8 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="9"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -1526,11 +1531,11 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="9"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" ht="24" customHeight="1" spans="1:9">
       <c r="A17" s="4"/>
@@ -1539,11 +1544,11 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="9"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="9"/>
+      <c r="I17" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/2020秋招.xlsx
+++ b/2020秋招.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>2020年秋招</t>
   </si>
@@ -134,6 +134,21 @@
   </si>
   <si>
     <t>https://app.mokahr.com/campus_apply/orbbec/2679#/candidateHome/applications?_k=cwh7y1</t>
+  </si>
+  <si>
+    <t>昆仑万维</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>校招管家</t>
+  </si>
+  <si>
+    <t>星环科技</t>
+  </si>
+  <si>
+    <t>云网络开发工程师</t>
   </si>
 </sst>
 </file>
@@ -141,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -199,19 +214,80 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -220,10 +296,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,6 +318,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -243,84 +333,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,25 +368,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,79 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,73 +542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,7 +581,70 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,69 +674,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -667,145 +682,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -855,11 +870,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1185,8 +1200,8 @@
   <sheetPr/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1466,7 +1481,7 @@
       <c r="D12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="9">
@@ -1487,7 +1502,7 @@
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="16"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="9"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1498,12 +1513,24 @@
       <c r="B14" s="7">
         <v>11</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="9">
+        <v>43690</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="I14" s="8"/>
     </row>
     <row r="15" ht="24" customHeight="1" spans="1:9">
@@ -1511,12 +1538,24 @@
       <c r="B15" s="7">
         <v>12</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="9">
+        <v>43690</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="I15" s="8"/>
     </row>
     <row r="16" ht="24" customHeight="1" spans="1:9">
@@ -1526,7 +1565,7 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="16"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="9"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -1539,7 +1578,7 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="16"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="9"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
